--- a/assets/Universe Data.xlsx
+++ b/assets/Universe Data.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="246">
   <si>
     <t>Name</t>
   </si>
@@ -565,9 +565,6 @@
     <t>W. Mod</t>
   </si>
   <si>
-    <t>Movement</t>
-  </si>
-  <si>
     <t>1. Explore</t>
   </si>
   <si>
@@ -616,9 +613,6 @@
     <t>Prospect</t>
   </si>
   <si>
-    <t>Look</t>
-  </si>
-  <si>
     <t>Advanced Spaceships</t>
   </si>
   <si>
@@ -655,27 +649,15 @@
     <t>• Inventory</t>
   </si>
   <si>
-    <t>• Get/Drop/Put</t>
-  </si>
-  <si>
     <t>• Gear</t>
   </si>
   <si>
     <t>• Doors</t>
   </si>
   <si>
-    <t>Search</t>
-  </si>
-  <si>
-    <t>Inspect</t>
-  </si>
-  <si>
     <t>Target</t>
   </si>
   <si>
-    <t>Open/Close/Lock/Unlock</t>
-  </si>
-  <si>
     <t>• Loot/Empty</t>
   </si>
   <si>
@@ -691,24 +673,12 @@
     <t>Recruit</t>
   </si>
   <si>
-    <t>Press/Push</t>
-  </si>
-  <si>
     <t>Say</t>
   </si>
   <si>
-    <t>Eat/Drink/Fill</t>
-  </si>
-  <si>
     <t>• Enter/Board</t>
   </si>
   <si>
-    <t>• Food</t>
-  </si>
-  <si>
-    <t>Emotes</t>
-  </si>
-  <si>
     <t>Plant</t>
   </si>
   <si>
@@ -743,6 +713,57 @@
   </si>
   <si>
     <t>Magic/Cast</t>
+  </si>
+  <si>
+    <t>Basic Commands</t>
+  </si>
+  <si>
+    <t>• Look</t>
+  </si>
+  <si>
+    <t>• Look Direction</t>
+  </si>
+  <si>
+    <t>• Mob Messages</t>
+  </si>
+  <si>
+    <t>• Radar</t>
+  </si>
+  <si>
+    <t>• Course</t>
+  </si>
+  <si>
+    <t>• Speed</t>
+  </si>
+  <si>
+    <t>• Eat/Drink/Fill/Empty</t>
+  </si>
+  <si>
+    <t>• Search</t>
+  </si>
+  <si>
+    <t>• Emotes</t>
+  </si>
+  <si>
+    <t>• Get/Drop/Put/From</t>
+  </si>
+  <si>
+    <t>• Open/Close/Lock/Unlock</t>
+  </si>
+  <si>
+    <t>• Press/Push</t>
+  </si>
+  <si>
+    <t>• Inspect</t>
+  </si>
+  <si>
+    <t>Menu Commands</t>
+  </si>
+  <si>
+    <t>• Armor</t>
+  </si>
+  <si>
+    <t>• Food/Drink</t>
   </si>
 </sst>
 </file>
@@ -827,7 +848,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -854,18 +875,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1447,7 +1456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1826,6 +1835,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1890,15 +1905,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2181,10 +2187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2207,268 +2213,298 @@
   <sheetData>
     <row r="1" spans="2:14" s="139" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B1" s="139" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D1" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" s="139" t="s">
         <v>180</v>
       </c>
-      <c r="F1" s="139" t="s">
+      <c r="H1" s="139" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="139" t="s">
+      <c r="J1" s="139" t="s">
         <v>182</v>
       </c>
-      <c r="J1" s="139" t="s">
+      <c r="L1" s="139" t="s">
         <v>183</v>
       </c>
-      <c r="L1" s="139" t="s">
+      <c r="N1" s="139" t="s">
         <v>184</v>
-      </c>
-      <c r="N1" s="139" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="165"/>
-      <c r="D2" t="s">
-        <v>203</v>
+        <v>187</v>
+      </c>
+      <c r="C2" s="143"/>
+      <c r="D2" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="F2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="H2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="L2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="166"/>
+        <v>188</v>
+      </c>
+      <c r="C3" s="142"/>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J3" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="L3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="164"/>
+        <v>189</v>
+      </c>
+      <c r="C4" s="142"/>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H4" t="s">
-        <v>234</v>
+        <v>224</v>
+      </c>
+      <c r="J4" t="s">
+        <v>200</v>
       </c>
       <c r="L4" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="143"/>
+      <c r="D5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H5" t="s">
+        <v>225</v>
+      </c>
+      <c r="J5" t="s">
+        <v>233</v>
+      </c>
+      <c r="L5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C6" s="143"/>
+      <c r="D6" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C5" s="165"/>
-      <c r="D5" t="s">
+      <c r="F6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H6" t="s">
+        <v>215</v>
+      </c>
+      <c r="J6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C7" s="143"/>
+      <c r="D7" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F7" t="s">
+        <v>213</v>
+      </c>
+      <c r="J7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C8" s="143"/>
+      <c r="D8" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C9" s="143"/>
+      <c r="D9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C10" s="143"/>
+      <c r="D10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C11" s="143"/>
+      <c r="D11" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" t="s">
         <v>218</v>
       </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="143"/>
+      <c r="D12" t="s">
+        <v>236</v>
+      </c>
+      <c r="F12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="143"/>
+      <c r="D13" t="s">
+        <v>205</v>
+      </c>
+      <c r="F13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="143"/>
+      <c r="D14" t="s">
+        <v>204</v>
+      </c>
+      <c r="F14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="143"/>
+      <c r="D15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="143"/>
+      <c r="D16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="143"/>
+      <c r="D17" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="142"/>
+      <c r="D18" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="143"/>
+      <c r="D19" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="H5" t="s">
-        <v>235</v>
-      </c>
-      <c r="L5" t="s">
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="143"/>
+      <c r="D20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="143"/>
+      <c r="D21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="143"/>
+      <c r="D22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="143"/>
+      <c r="D23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="143"/>
+      <c r="D24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="143"/>
+      <c r="D25" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C6" s="165"/>
-      <c r="D6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C7" s="165"/>
-      <c r="D7" t="s">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="143"/>
+      <c r="D26" s="140" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="143"/>
+      <c r="D27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="143"/>
+      <c r="D28" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
         <v>207</v>
-      </c>
-      <c r="F7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C8" s="165"/>
-      <c r="D8" t="s">
-        <v>206</v>
-      </c>
-      <c r="F8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C9" s="165"/>
-      <c r="D9" t="s">
-        <v>225</v>
-      </c>
-      <c r="F9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C10" s="165"/>
-      <c r="D10" t="s">
-        <v>209</v>
-      </c>
-      <c r="F10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="165"/>
-      <c r="D11" t="s">
-        <v>216</v>
-      </c>
-      <c r="F11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C12" s="165"/>
-      <c r="D12" t="s">
-        <v>208</v>
-      </c>
-      <c r="F12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C13" s="165"/>
-      <c r="D13" t="s">
-        <v>217</v>
-      </c>
-      <c r="F13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C14" s="165"/>
-      <c r="D14" t="s">
-        <v>210</v>
-      </c>
-      <c r="F14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C15" s="165"/>
-      <c r="D15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C16" s="164"/>
-      <c r="D16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="166"/>
-      <c r="D17" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="165"/>
-      <c r="D18" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="164"/>
-      <c r="D19" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="165"/>
-      <c r="D20" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="164"/>
-      <c r="D21" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="165"/>
-      <c r="D22" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="165"/>
-      <c r="D23" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="165"/>
-      <c r="D24" s="140" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="165"/>
-      <c r="D25" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="165"/>
-      <c r="D26" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="165"/>
-      <c r="D27" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28" s="165"/>
-      <c r="D28" t="s">
-        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3436,233 +3472,233 @@
       <c r="B3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="150" t="s">
+      <c r="C3" s="152" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="151"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="153"/>
     </row>
     <row r="4" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="146" t="s">
+      <c r="C4" s="148" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="147"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="149"/>
     </row>
     <row r="5" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="146" t="s">
+      <c r="C5" s="148" t="s">
         <v>139</v>
       </c>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="147"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="149"/>
     </row>
     <row r="6" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="148" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="148"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="149"/>
     </row>
     <row r="7" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="146" t="s">
+      <c r="C7" s="148" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="147"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="149"/>
     </row>
     <row r="8" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="146" t="s">
+      <c r="C8" s="148" t="s">
         <v>139</v>
       </c>
-      <c r="D8" s="146"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="147"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="149"/>
     </row>
     <row r="9" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="146" t="s">
+      <c r="C9" s="148" t="s">
         <v>139</v>
       </c>
-      <c r="D9" s="146"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="147"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="149"/>
     </row>
     <row r="10" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="146" t="s">
+      <c r="C10" s="148" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="146"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="147"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="149"/>
     </row>
     <row r="11" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="146" t="s">
+      <c r="C11" s="148" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="146"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="147"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="149"/>
     </row>
     <row r="12" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="146" t="s">
+      <c r="C12" s="148" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="147"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="149"/>
     </row>
     <row r="13" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="146" t="s">
+      <c r="C13" s="148" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="146"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="147"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="149"/>
     </row>
     <row r="14" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="146" t="s">
+      <c r="C14" s="148" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="146"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="147"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="149"/>
     </row>
     <row r="15" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="146" t="s">
+      <c r="C15" s="148" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="147"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="149"/>
     </row>
     <row r="16" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="146" t="s">
+      <c r="C16" s="148" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="147"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="149"/>
     </row>
     <row r="17" spans="2:19" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="148" t="s">
+      <c r="C17" s="150" t="s">
         <v>138</v>
       </c>
-      <c r="D17" s="148"/>
-      <c r="E17" s="148"/>
-      <c r="F17" s="148"/>
-      <c r="G17" s="148"/>
-      <c r="H17" s="148"/>
-      <c r="I17" s="148"/>
-      <c r="J17" s="149"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="151"/>
     </row>
     <row r="18" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="144" t="s">
+      <c r="B19" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="145"/>
+      <c r="C19" s="147"/>
     </row>
     <row r="20" spans="2:19" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="90" t="s">
@@ -3695,16 +3731,16 @@
       <c r="K20" s="130" t="s">
         <v>174</v>
       </c>
-      <c r="L20" s="155" t="s">
+      <c r="L20" s="157" t="s">
         <v>66</v>
       </c>
-      <c r="M20" s="156"/>
-      <c r="N20" s="156"/>
-      <c r="O20" s="156"/>
-      <c r="P20" s="156"/>
-      <c r="Q20" s="156"/>
-      <c r="R20" s="156"/>
-      <c r="S20" s="157"/>
+      <c r="M20" s="158"/>
+      <c r="N20" s="158"/>
+      <c r="O20" s="158"/>
+      <c r="P20" s="158"/>
+      <c r="Q20" s="158"/>
+      <c r="R20" s="158"/>
+      <c r="S20" s="159"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="99" t="s">
@@ -3815,16 +3851,16 @@
       <c r="K23" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="L23" s="158" t="s">
+      <c r="L23" s="160" t="s">
         <v>176</v>
       </c>
-      <c r="M23" s="159"/>
-      <c r="N23" s="159"/>
-      <c r="O23" s="159"/>
-      <c r="P23" s="159"/>
-      <c r="Q23" s="159"/>
-      <c r="R23" s="159"/>
-      <c r="S23" s="160"/>
+      <c r="M23" s="161"/>
+      <c r="N23" s="161"/>
+      <c r="O23" s="161"/>
+      <c r="P23" s="161"/>
+      <c r="Q23" s="161"/>
+      <c r="R23" s="161"/>
+      <c r="S23" s="162"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="23" t="s">
@@ -3895,16 +3931,16 @@
       <c r="K25" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="L25" s="161" t="s">
-        <v>10</v>
-      </c>
-      <c r="M25" s="162"/>
-      <c r="N25" s="162"/>
-      <c r="O25" s="162"/>
-      <c r="P25" s="162"/>
-      <c r="Q25" s="162"/>
-      <c r="R25" s="162"/>
-      <c r="S25" s="163"/>
+      <c r="L25" s="163" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" s="164"/>
+      <c r="N25" s="164"/>
+      <c r="O25" s="164"/>
+      <c r="P25" s="164"/>
+      <c r="Q25" s="164"/>
+      <c r="R25" s="164"/>
+      <c r="S25" s="165"/>
     </row>
     <row r="26" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="29" t="s">
@@ -4015,16 +4051,16 @@
       <c r="K28" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L28" s="161" t="s">
-        <v>10</v>
-      </c>
-      <c r="M28" s="162"/>
-      <c r="N28" s="162"/>
-      <c r="O28" s="162"/>
-      <c r="P28" s="162"/>
-      <c r="Q28" s="162"/>
-      <c r="R28" s="162"/>
-      <c r="S28" s="163"/>
+      <c r="L28" s="163" t="s">
+        <v>10</v>
+      </c>
+      <c r="M28" s="164"/>
+      <c r="N28" s="164"/>
+      <c r="O28" s="164"/>
+      <c r="P28" s="164"/>
+      <c r="Q28" s="164"/>
+      <c r="R28" s="164"/>
+      <c r="S28" s="165"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="23" t="s">
@@ -4095,16 +4131,16 @@
       <c r="K30" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="L30" s="161" t="s">
-        <v>10</v>
-      </c>
-      <c r="M30" s="162"/>
-      <c r="N30" s="162"/>
-      <c r="O30" s="162"/>
-      <c r="P30" s="162"/>
-      <c r="Q30" s="162"/>
-      <c r="R30" s="162"/>
-      <c r="S30" s="163"/>
+      <c r="L30" s="163" t="s">
+        <v>10</v>
+      </c>
+      <c r="M30" s="164"/>
+      <c r="N30" s="164"/>
+      <c r="O30" s="164"/>
+      <c r="P30" s="164"/>
+      <c r="Q30" s="164"/>
+      <c r="R30" s="164"/>
+      <c r="S30" s="165"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="23" t="s">
@@ -4215,16 +4251,16 @@
       <c r="K33" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="L33" s="161" t="s">
-        <v>10</v>
-      </c>
-      <c r="M33" s="162"/>
-      <c r="N33" s="162"/>
-      <c r="O33" s="162"/>
-      <c r="P33" s="162"/>
-      <c r="Q33" s="162"/>
-      <c r="R33" s="162"/>
-      <c r="S33" s="163"/>
+      <c r="L33" s="163" t="s">
+        <v>10</v>
+      </c>
+      <c r="M33" s="164"/>
+      <c r="N33" s="164"/>
+      <c r="O33" s="164"/>
+      <c r="P33" s="164"/>
+      <c r="Q33" s="164"/>
+      <c r="R33" s="164"/>
+      <c r="S33" s="165"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" s="23" t="s">
@@ -4255,16 +4291,16 @@
       <c r="K34" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L34" s="161" t="s">
-        <v>10</v>
-      </c>
-      <c r="M34" s="162"/>
-      <c r="N34" s="162"/>
-      <c r="O34" s="162"/>
-      <c r="P34" s="162"/>
-      <c r="Q34" s="162"/>
-      <c r="R34" s="162"/>
-      <c r="S34" s="163"/>
+      <c r="L34" s="163" t="s">
+        <v>10</v>
+      </c>
+      <c r="M34" s="164"/>
+      <c r="N34" s="164"/>
+      <c r="O34" s="164"/>
+      <c r="P34" s="164"/>
+      <c r="Q34" s="164"/>
+      <c r="R34" s="164"/>
+      <c r="S34" s="165"/>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" s="23" t="s">
@@ -4295,16 +4331,16 @@
       <c r="K35" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L35" s="161" t="s">
-        <v>10</v>
-      </c>
-      <c r="M35" s="162"/>
-      <c r="N35" s="162"/>
-      <c r="O35" s="162"/>
-      <c r="P35" s="162"/>
-      <c r="Q35" s="162"/>
-      <c r="R35" s="162"/>
-      <c r="S35" s="163"/>
+      <c r="L35" s="163" t="s">
+        <v>10</v>
+      </c>
+      <c r="M35" s="164"/>
+      <c r="N35" s="164"/>
+      <c r="O35" s="164"/>
+      <c r="P35" s="164"/>
+      <c r="Q35" s="164"/>
+      <c r="R35" s="164"/>
+      <c r="S35" s="165"/>
     </row>
     <row r="36" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="104" t="s">
@@ -4375,16 +4411,16 @@
       <c r="K37" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="L37" s="152" t="s">
-        <v>10</v>
-      </c>
-      <c r="M37" s="153"/>
-      <c r="N37" s="153"/>
-      <c r="O37" s="153"/>
-      <c r="P37" s="153"/>
-      <c r="Q37" s="153"/>
-      <c r="R37" s="153"/>
-      <c r="S37" s="154"/>
+      <c r="L37" s="154" t="s">
+        <v>10</v>
+      </c>
+      <c r="M37" s="155"/>
+      <c r="N37" s="155"/>
+      <c r="O37" s="155"/>
+      <c r="P37" s="155"/>
+      <c r="Q37" s="155"/>
+      <c r="R37" s="155"/>
+      <c r="S37" s="156"/>
     </row>
     <row r="38" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="107" t="s">
@@ -4415,23 +4451,23 @@
       <c r="K38" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="L38" s="152" t="s">
-        <v>10</v>
-      </c>
-      <c r="M38" s="153"/>
-      <c r="N38" s="153"/>
-      <c r="O38" s="153"/>
-      <c r="P38" s="153"/>
-      <c r="Q38" s="153"/>
-      <c r="R38" s="153"/>
-      <c r="S38" s="154"/>
+      <c r="L38" s="154" t="s">
+        <v>10</v>
+      </c>
+      <c r="M38" s="155"/>
+      <c r="N38" s="155"/>
+      <c r="O38" s="155"/>
+      <c r="P38" s="155"/>
+      <c r="Q38" s="155"/>
+      <c r="R38" s="155"/>
+      <c r="S38" s="156"/>
     </row>
     <row r="39" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="2:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="144" t="s">
+      <c r="B40" s="146" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="145"/>
+      <c r="C40" s="147"/>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B41" s="31" t="s">
@@ -4467,10 +4503,10 @@
     </row>
     <row r="45" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="142" t="s">
+      <c r="B46" s="144" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="143"/>
+      <c r="C46" s="145"/>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B47" s="31" t="s">
